--- a/file/sample/siswa.xlsx
+++ b/file/sample/siswa.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Manajemen-Nilai-Rapor\file\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10BE86B-9200-47BC-B82D-E65489B30F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FFE562-B7D5-4AFF-9D5D-17A9468F06C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A6776594-3408-4F1B-A132-F2116F6F482F}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lembar2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>tanggal lahir</t>
   </si>
@@ -54,24 +55,12 @@
     <t>DATA SISWA</t>
   </si>
   <si>
-    <t>wasmi</t>
-  </si>
-  <si>
-    <t>darsem</t>
-  </si>
-  <si>
     <t>Kelas 4</t>
   </si>
   <si>
     <t>Kelas 5</t>
   </si>
   <si>
-    <t>Ani</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
     <t>Data akan dibaca mulai dari baris A dan kolom 7, jadi cukup pastekan data mulai dari baris A kolom 7</t>
   </si>
   <si>
@@ -93,10 +82,139 @@
     <t>sel yang terdapat tanda (*) merupakan baris yang wajib di isi</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>l</t>
+    <t>Budi Santoso,</t>
+  </si>
+  <si>
+    <t>Ani Setiawati,</t>
+  </si>
+  <si>
+    <t>Joko Prasetyo,</t>
+  </si>
+  <si>
+    <t>Siti Rahayu,</t>
+  </si>
+  <si>
+    <t>Ahmad Hidayat,</t>
+  </si>
+  <si>
+    <t>Dewi Kusuma,</t>
+  </si>
+  <si>
+    <t>Adi Nugroho,</t>
+  </si>
+  <si>
+    <t>Rina Wulandari,</t>
+  </si>
+  <si>
+    <t>Hadi Susanto,</t>
+  </si>
+  <si>
+    <t>Maya Indah,</t>
+  </si>
+  <si>
+    <t>Arianto Wijaya,</t>
+  </si>
+  <si>
+    <t>Rini Widya,</t>
+  </si>
+  <si>
+    <t>Dedi Pratama,</t>
+  </si>
+  <si>
+    <t>Putri Anggraini,</t>
+  </si>
+  <si>
+    <t>Rudi Santoso,</t>
+  </si>
+  <si>
+    <t>Eka Prasetya,</t>
+  </si>
+  <si>
+    <t>Nina Rahmawati,</t>
+  </si>
+  <si>
+    <t>Andi Susanto,</t>
+  </si>
+  <si>
+    <t>Retno Dewi,</t>
+  </si>
+  <si>
+    <t>Heru Santoso</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Kelas 3</t>
+  </si>
+  <si>
+    <t>Kelas 2</t>
+  </si>
+  <si>
+    <t>Kelas 1</t>
+  </si>
+  <si>
+    <t>Siti Santoso</t>
+  </si>
+  <si>
+    <t>Wati Setiawati</t>
+  </si>
+  <si>
+    <t>Rahma Prasetyo</t>
+  </si>
+  <si>
+    <t>Rina Rahayu</t>
+  </si>
+  <si>
+    <t>Sari Hidayat</t>
+  </si>
+  <si>
+    <t>Linda Kusuma</t>
+  </si>
+  <si>
+    <t>Desi Nugroho</t>
+  </si>
+  <si>
+    <t>Rini Susanto</t>
+  </si>
+  <si>
+    <t>Sri Dewi</t>
+  </si>
+  <si>
+    <t>Rina Wulandari</t>
+  </si>
+  <si>
+    <t>Maya Widya</t>
+  </si>
+  <si>
+    <t>Rudi Pratama</t>
+  </si>
+  <si>
+    <t>Dewi Santoso</t>
+  </si>
+  <si>
+    <t>Heru Wijaya</t>
+  </si>
+  <si>
+    <t>Joko Prasetyo</t>
+  </si>
+  <si>
+    <t>Retno Anggraini</t>
+  </si>
+  <si>
+    <t>Bambang Santoso</t>
+  </si>
+  <si>
+    <t>Eka Prasetya</t>
+  </si>
+  <si>
+    <t>Lina Puspitasari</t>
+  </si>
+  <si>
+    <t>Arif Setiawan</t>
   </si>
 </sst>
 </file>
@@ -152,15 +270,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -496,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC82988-59BC-472B-895E-64EE69B240D1}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,11 +625,11 @@
     <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -522,83 +637,83 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>1</v>
@@ -606,49 +721,118 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>555</v>
+        <v>1234567890</v>
       </c>
       <c r="B8" s="1">
-        <v>553</v>
+        <v>2021001</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7">
-        <v>44826</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="E8" s="6">
+        <v>38362</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>2342</v>
+        <v>2345678901</v>
       </c>
       <c r="B9" s="1">
-        <v>14235</v>
+        <v>2021002</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7">
-        <v>37479</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="6">
+        <v>38852</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>3456789012</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2021003</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6">
+        <v>38584</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>4567890123</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2021004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="6">
+        <v>38781</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>5678901234</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2021005</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="6">
+        <v>38668</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -659,4 +843,364 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E058412-5232-4ACF-9520-118DE3C2980E}">
+  <dimension ref="B2:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>6789012345</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2021006</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="6">
+        <v>38923</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>7890123456</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2021007</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="6">
+        <v>38385</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>8901234567</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2021008</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="6">
+        <v>38886</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>9012345678</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2021009</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6">
+        <v>38625</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2021010</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6">
+        <v>38815</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2021011</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="6">
+        <v>38641</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>2345678901</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2021012</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6">
+        <v>39074</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>3456789012</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2021013</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="6">
+        <v>38510</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>4567890123</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2021014</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="6">
+        <v>38974</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>5678901234</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2021015</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="6">
+        <v>38411</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>6789012345</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2021016</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="6">
+        <v>38904</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>7890123456</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2021017</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="6">
+        <v>38675</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>8901234567</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2021018</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="6">
+        <v>38778</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>9012345678</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2021019</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="6">
+        <v>38575</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2021020</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="6">
+        <v>38742</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>